--- a/Excel bestanden/Pakketjesfrequentie Straten.xlsx
+++ b/Excel bestanden/Pakketjesfrequentie Straten.xlsx
@@ -8,18 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
-  <si>
-    <t>GeerWeg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Opp</t>
   </si>
@@ -33,18 +28,9 @@
     <t>personen/km²</t>
   </si>
   <si>
-    <t>Oranje Plantage</t>
-  </si>
-  <si>
-    <t>Aantal personen Drukste en Minst drukke wegen</t>
-  </si>
-  <si>
     <t>Aantal inwoners Nederland</t>
   </si>
   <si>
-    <t>Gegevens pakketbezorging 2016</t>
-  </si>
-  <si>
     <t>Aantal pakketjes per persoon</t>
   </si>
   <si>
@@ -91,13 +77,31 @@
   </si>
   <si>
     <t>inwoners/km²</t>
+  </si>
+  <si>
+    <t>Geerweg</t>
+  </si>
+  <si>
+    <t>OranjePlantage</t>
+  </si>
+  <si>
+    <t>GEGEVENS PAKKETBEZORGING NEDERLAND</t>
+  </si>
+  <si>
+    <t>AANTAL BEZORGINGEN STRAAT DELFT</t>
+  </si>
+  <si>
+    <t>Aantal bezorgingen per dag</t>
+  </si>
+  <si>
+    <t>bezorgingen/dag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +117,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,17 +165,183 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>481024</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5737412" y="504264"/>
+          <a:ext cx="1041318" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584387</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11385177" y="2655794"/>
+          <a:ext cx="2276475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>524996</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11396383" y="3204883"/>
+          <a:ext cx="1600760" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,248 +629,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+      <c r="A1" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
         <v>17000000</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
         <v>234000000</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <f>B4/B3</f>
         <v>13.764705882352942</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>6884</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>14096</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>8000</v>
+      </c>
+      <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="B12">
-        <v>7500</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
       <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>7000</v>
+      </c>
+      <c r="G12" t="s">
         <v>1</v>
-      </c>
-      <c r="F12">
-        <v>7500</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <f>B12*(B11/1000000)</f>
-        <v>51.63</v>
+        <v>55.072000000000003</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <f>F12*F11/1000000</f>
-        <v>105.72</v>
+        <v>98.671999999999997</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <f>B13*B5</f>
-        <v>710.67176470588242</v>
+        <v>758.04988235294127</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <f>F13*B5</f>
-        <v>1455.204705882353</v>
+        <v>1358.1910588235294</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>1.7</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
         <f>B14/B15</f>
-        <v>355.33588235294121</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2">
+        <v>379.02494117647063</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
         <f>F14/F15</f>
-        <v>856.00276816609005</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
+        <v>798.93591695501732</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <f>CEILING(B16/(365/7*5), 3)</f>
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <f>CEILING(F16/(365/7*5), 3)</f>
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>